--- a/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_43.xlsx
+++ b/ArtigoKrigingVsg/peaks/Exponential/content/results/metrics_1_43.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_0</t>
+          <t>model_1_43_9</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998086348584807</v>
+        <v>0.9458285722297635</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8234585760308959</v>
+        <v>0.7192079284399827</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8162399348939828</v>
+        <v>0.7846115467451995</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998618606188979</v>
+        <v>0.9391180105148984</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0007965625104171736</v>
+        <v>0.1739058406067404</v>
       </c>
       <c r="G2" t="n">
-        <v>1.180533314979911</v>
+        <v>1.87765787545044</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6572990978634492</v>
+        <v>0.7704320083523318</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0006901704237038114</v>
+        <v>0.1566493768691589</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06631851546844172</v>
+        <v>0.8525120539924932</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02822343902534157</v>
+        <v>0.4170201920851561</v>
       </c>
       <c r="L2" t="n">
-        <v>1.012247369057235</v>
+        <v>0.926234651546912</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02866792997690234</v>
+        <v>0.4235878432432432</v>
       </c>
       <c r="N2" t="n">
-        <v>144.2704099006324</v>
+        <v>37.49848254435638</v>
       </c>
       <c r="O2" t="n">
-        <v>285.6055824438488</v>
+        <v>74.4630661325822</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_1</t>
+          <t>model_1_43_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9998040514770996</v>
+        <v>0.9457627814901911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8233935370135088</v>
+        <v>0.7189580732312512</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8164375493060072</v>
+        <v>0.7849261611988583</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998376499677437</v>
+        <v>0.9396844171911078</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008156409577778963</v>
+        <v>0.1741170477751764</v>
       </c>
       <c r="G3" t="n">
-        <v>1.180968231188654</v>
+        <v>1.879328658381705</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6565922425699802</v>
+        <v>0.769306650693989</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008111314069656919</v>
+        <v>0.1551920123245187</v>
       </c>
       <c r="J3" t="n">
-        <v>0.073074099479394</v>
+        <v>0.854392024478959</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02855942852680873</v>
+        <v>0.4172733489874191</v>
       </c>
       <c r="L3" t="n">
-        <v>1.012540705465625</v>
+        <v>0.9261450641568559</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02900921097715133</v>
+        <v>0.4238449871136528</v>
       </c>
       <c r="N3" t="n">
-        <v>144.2230726051059</v>
+        <v>37.49605503511585</v>
       </c>
       <c r="O3" t="n">
-        <v>285.5582451483223</v>
+        <v>74.46063862334168</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_2</t>
+          <t>model_1_43_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997748866560706</v>
+        <v>0.945694214745932</v>
       </c>
       <c r="C4" t="n">
-        <v>0.822127028338032</v>
+        <v>0.7187046625516422</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8171930308800964</v>
+        <v>0.7852414711996363</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9994184594073287</v>
+        <v>0.9402517341844561</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0009370403039195312</v>
+        <v>0.1743371667158959</v>
       </c>
       <c r="G4" t="n">
-        <v>1.189437380533304</v>
+        <v>1.881023216763099</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6538899287848017</v>
+        <v>0.76817880510393</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00290548657481308</v>
+        <v>0.1537323055336126</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08663206208034961</v>
+        <v>0.856320847376747</v>
       </c>
       <c r="K4" t="n">
-        <v>0.03061111405877825</v>
+        <v>0.4175370243653799</v>
       </c>
       <c r="L4" t="n">
-        <v>1.014407254011481</v>
+        <v>0.9260516966753116</v>
       </c>
       <c r="M4" t="n">
-        <v>0.03109320850531627</v>
+        <v>0.4241128151152379</v>
       </c>
       <c r="N4" t="n">
-        <v>143.9455685257255</v>
+        <v>37.49352823003393</v>
       </c>
       <c r="O4" t="n">
-        <v>285.2807410689419</v>
+        <v>74.45811181825975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_8</t>
+          <t>model_1_43_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9994031613604294</v>
+        <v>0.945622831898276</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8219046058781223</v>
+        <v>0.718447644245011</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8151584857707038</v>
+        <v>0.7855571949370734</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9976878853873216</v>
+        <v>0.9408199859300431</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00248435677091395</v>
+        <v>0.1745663261572747</v>
       </c>
       <c r="G5" t="n">
-        <v>1.190924720546882</v>
+        <v>1.882741899363003</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6611673786713952</v>
+        <v>0.7670494796018315</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0115517610485406</v>
+        <v>0.1522701936249204</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1345692732072362</v>
+        <v>0.858256337122244</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04984332222990307</v>
+        <v>0.417811352355671</v>
       </c>
       <c r="L5" t="n">
-        <v>1.038197672932519</v>
+        <v>0.9259544944997801</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05062830472998136</v>
+        <v>0.4243914634971486</v>
       </c>
       <c r="N5" t="n">
-        <v>141.9954829952845</v>
+        <v>37.49090103392943</v>
       </c>
       <c r="O5" t="n">
-        <v>283.3306555385009</v>
+        <v>74.45548462215525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_9</t>
+          <t>model_1_43_5</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9991109873642039</v>
+        <v>0.9455485517351883</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8218978463865211</v>
+        <v>0.7181869087968995</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8133745963744909</v>
+        <v>0.7858732226244877</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9964672259135609</v>
+        <v>0.9413889467373642</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003700538830322791</v>
+        <v>0.1748047868132677</v>
       </c>
       <c r="G6" t="n">
-        <v>1.190969921298344</v>
+        <v>1.8844854385051</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6675482476057988</v>
+        <v>0.7659190668882889</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01765040619580052</v>
+        <v>0.1508062573001782</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1691783588616297</v>
+        <v>0.8602193884217259</v>
       </c>
       <c r="K6" t="n">
-        <v>0.06083205429970939</v>
+        <v>0.4180966237764516</v>
       </c>
       <c r="L6" t="n">
-        <v>1.056896808690951</v>
+        <v>0.9258533470436606</v>
       </c>
       <c r="M6" t="n">
-        <v>0.06179009834518506</v>
+        <v>0.4246812276576397</v>
       </c>
       <c r="N6" t="n">
-        <v>141.198553680236</v>
+        <v>37.48817086324078</v>
       </c>
       <c r="O6" t="n">
-        <v>282.5337262234524</v>
+        <v>74.4527544514666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_3</t>
+          <t>model_1_43_4</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997389205094772</v>
+        <v>0.9454712979800115</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8216707131529825</v>
+        <v>0.717922437975801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8174457856956485</v>
+        <v>0.7861897788313448</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9992170068342187</v>
+        <v>0.9419586789693162</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001086750349296796</v>
+        <v>0.1750527935538513</v>
       </c>
       <c r="G7" t="n">
-        <v>1.192488762276869</v>
+        <v>1.886253956103562</v>
       </c>
       <c r="H7" t="n">
-        <v>0.652985839465138</v>
+        <v>0.7647867636913446</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003911981657028633</v>
+        <v>0.1493403360996334</v>
       </c>
       <c r="J7" t="n">
-        <v>0.08580775576379544</v>
+        <v>0.8622064591638545</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03296589676160495</v>
+        <v>0.4183931088747175</v>
       </c>
       <c r="L7" t="n">
-        <v>1.016709087393458</v>
+        <v>0.9257481504408668</v>
       </c>
       <c r="M7" t="n">
-        <v>0.03348507668179338</v>
+        <v>0.424982382099827</v>
       </c>
       <c r="N7" t="n">
-        <v>143.6491267333626</v>
+        <v>37.48533534620707</v>
       </c>
       <c r="O7" t="n">
-        <v>284.984299276579</v>
+        <v>74.4499189344329</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_4</t>
+          <t>model_1_43_3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9994780857483626</v>
+        <v>0.9453910263531015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8215821505536025</v>
+        <v>0.7176541778914673</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8150873244667527</v>
+        <v>0.7865065639151076</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9980442775484971</v>
+        <v>0.9425290774563095</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00217248200589789</v>
+        <v>0.1753104885293992</v>
       </c>
       <c r="G8" t="n">
-        <v>1.193080980786716</v>
+        <v>1.888047812522726</v>
       </c>
       <c r="H8" t="n">
-        <v>0.661421918529459</v>
+        <v>0.7636536418149794</v>
       </c>
       <c r="I8" t="n">
-        <v>0.009771158537359657</v>
+        <v>0.1478727006246712</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1279657775416032</v>
+        <v>0.8642020856008058</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0466098917172942</v>
+        <v>0.418700953580714</v>
       </c>
       <c r="L8" t="n">
-        <v>1.033402512104793</v>
+        <v>0.9256388443957126</v>
       </c>
       <c r="M8" t="n">
-        <v>0.04734395091904358</v>
+        <v>0.425295075052211</v>
       </c>
       <c r="N8" t="n">
-        <v>142.2637699670595</v>
+        <v>37.48239331392008</v>
       </c>
       <c r="O8" t="n">
-        <v>283.5989425102759</v>
+        <v>74.44697690214591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_7</t>
+          <t>model_1_43_2</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995557073265471</v>
+        <v>0.9453077028910333</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8215072874893444</v>
+        <v>0.7173820822356983</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8158426893907993</v>
+        <v>0.7868237151338132</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9983524298094192</v>
+        <v>0.9431001043461872</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001849380114455172</v>
+        <v>0.1755779807722602</v>
       </c>
       <c r="G9" t="n">
-        <v>1.193581590442123</v>
+        <v>1.889867317425738</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6587200219947194</v>
+        <v>0.7625192102951538</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00823157167379345</v>
+        <v>0.1464034482689024</v>
       </c>
       <c r="J9" t="n">
-        <v>0.112005414562028</v>
+        <v>0.8662045741219874</v>
       </c>
       <c r="K9" t="n">
-        <v>0.04300441970838779</v>
+        <v>0.4190202629614231</v>
       </c>
       <c r="L9" t="n">
-        <v>1.028434731100987</v>
+        <v>0.9255253826601304</v>
       </c>
       <c r="M9" t="n">
-        <v>0.04368169633014664</v>
+        <v>0.4256194132364741</v>
       </c>
       <c r="N9" t="n">
-        <v>142.5858095386179</v>
+        <v>37.47934399975811</v>
       </c>
       <c r="O9" t="n">
-        <v>283.9209820818343</v>
+        <v>74.44392758798394</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_5</t>
+          <t>model_1_43_1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9995000108468218</v>
+        <v>0.9452211951110339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8214645211142019</v>
+        <v>0.7171060493517001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8152017683138938</v>
+        <v>0.7871410786330364</v>
       </c>
       <c r="E10" t="n">
-        <v>0.998132278050838</v>
+        <v>0.9436716183762675</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002081218198231051</v>
+        <v>0.1758556955901829</v>
       </c>
       <c r="G10" t="n">
-        <v>1.193867569389622</v>
+        <v>1.891713150592049</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6610125595240708</v>
+        <v>0.7613840194602255</v>
       </c>
       <c r="I10" t="n">
-        <v>0.009331491416352753</v>
+        <v>0.1449329425012491</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1211394871408698</v>
+        <v>0.8682172888892323</v>
       </c>
       <c r="K10" t="n">
-        <v>0.04562037043066454</v>
+        <v>0.4193515179299854</v>
       </c>
       <c r="L10" t="n">
-        <v>1.031999305803403</v>
+        <v>0.9254075848320461</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04633884566130789</v>
+        <v>0.4259558851396578</v>
       </c>
       <c r="N10" t="n">
-        <v>142.349603768963</v>
+        <v>37.47618306334923</v>
       </c>
       <c r="O10" t="n">
-        <v>283.6847763121794</v>
+        <v>74.44076665157505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_43_6</t>
+          <t>model_1_43_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9995064195876956</v>
+        <v>0.9451314244898026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8214496232534411</v>
+        <v>0.7168260385754568</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8153992797507461</v>
+        <v>0.7874585359966473</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9981480651806925</v>
+        <v>0.9442436203823237</v>
       </c>
       <c r="F11" t="n">
-        <v>0.002054541643250851</v>
+        <v>0.1761438850655133</v>
       </c>
       <c r="G11" t="n">
-        <v>1.193967191453128</v>
+        <v>1.893585583942119</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6603060725668213</v>
+        <v>0.7602484928778249</v>
       </c>
       <c r="I11" t="n">
-        <v>0.009252615935560623</v>
+        <v>0.1434611811712659</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1184956511507789</v>
+        <v>0.8702378451847348</v>
       </c>
       <c r="K11" t="n">
-        <v>0.04532705200264904</v>
+        <v>0.4196949905175344</v>
       </c>
       <c r="L11" t="n">
-        <v>1.031589146387482</v>
+        <v>0.9252853439861142</v>
       </c>
       <c r="M11" t="n">
-        <v>0.04604090776126201</v>
+        <v>0.4263047670771141</v>
       </c>
       <c r="N11" t="n">
-        <v>142.3754050011178</v>
+        <v>37.47290817831458</v>
       </c>
       <c r="O11" t="n">
-        <v>283.7105775443342</v>
+        <v>74.4374917665404</v>
       </c>
     </row>
   </sheetData>
